--- a/CSC530_reading_schedule_Wi2019.xlsx
+++ b/CSC530_reading_schedule_Wi2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawla\Dropbox\CMPLXSYS_530\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosp\Dropbox\CMPLXSYS_530\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF9603-0747-4B55-8C4E-D1D5714ADDC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -385,33 +386,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Tentative] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guest speaker:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Luis Zaman</t>
-    </r>
   </si>
   <si>
     <t>TBD</t>
@@ -562,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,6 +874,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,25 +1200,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="11"/>
-    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="80.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1229,7 @@
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -1245,7 +1238,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -1254,7 +1247,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -1263,7 +1256,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1303,8 +1296,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1318,12 +1311,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
         <v>43482</v>
@@ -1331,13 +1324,13 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1356,7 +1349,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
         <v>43489</v>
@@ -1368,8 +1361,8 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1390,29 +1383,26 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5">
+    <row r="15" spans="1:7" s="51" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48">
         <v>43496</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="5">
         <v>43501</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1421,12 +1411,14 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
         <v>43503</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="13" t="s">
         <v>36</v>
@@ -1434,17 +1426,14 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6</v>
       </c>
       <c r="B20" s="5">
         <v>43508</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1455,50 +1444,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
         <v>43510</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7</v>
       </c>
       <c r="B23" s="5">
         <v>43515</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
         <v>43517</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1506,7 +1493,7 @@
         <v>43522</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>43</v>
@@ -1521,7 +1508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
         <v>43524</v>
@@ -1534,8 +1521,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -1550,7 +1537,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="2">
         <v>43166</v>
@@ -1558,8 +1545,8 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>10</v>
       </c>
@@ -1567,7 +1554,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
@@ -1576,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="27">
         <v>43538</v>
@@ -1587,8 +1574,8 @@
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -1596,10 +1583,10 @@
         <v>43543</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>26</v>
@@ -1607,7 +1594,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
         <v>43545</v>
@@ -1615,13 +1602,13 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -1640,7 +1627,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
         <v>43552</v>
@@ -1655,8 +1642,8 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -1675,23 +1662,23 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="17">
         <v>43559</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -1708,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
         <v>43566</v>
@@ -1723,8 +1710,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -1741,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
         <v>43573</v>
@@ -1756,8 +1743,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>16</v>
       </c>
@@ -1771,13 +1758,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D52" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:XFD49"/>
+    <mergeCell ref="A34:XFD34"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A46:XFD46"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A7:XFD7"/>
@@ -1786,12 +1779,6 @@
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A49:XFD49"/>
-    <mergeCell ref="A34:XFD34"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A46:XFD46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
